--- a/Datos/Facebook_Analytics.xlsx
+++ b/Datos/Facebook_Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/845c9e8b7d078c54/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\Dropbox\Estadísticas EBA Nuria\Mi trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{D950F688-2B56-4BAD-84C0-1FF2EF7DC911}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{CB2ABA80-2FBA-4A12-996C-21DF6C656AD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26BC2B9-5E7E-4548-B460-A446BD95B0CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitas a la página" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -799,52 +799,10 @@
     <t>Media por usuario</t>
   </si>
   <si>
-    <t>3.82</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>3.06</t>
-  </si>
-  <si>
     <t>Publicaciones compartidas</t>
   </si>
   <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>1.91</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
     <t>Comentarios</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>1.78</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>1.47</t>
   </si>
   <si>
     <t>Mensajes</t>
@@ -854,7 +812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,6 +972,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="55">
@@ -1489,7 +1455,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1521,6 +1487,11 @@
     <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1890,20 +1861,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F1" sqref="F1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1916,8 +1887,17 @@
       <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43374</v>
       </c>
@@ -1931,8 +1911,17 @@
         <f>B2/C2</f>
         <v>4.3142857142857141</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="34">
+        <v>31</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43405</v>
       </c>
@@ -1946,8 +1935,17 @@
         <f>B3/C3</f>
         <v>2.9939393939393941</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="34">
+        <v>128</v>
+      </c>
+      <c r="H3" s="34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43435</v>
       </c>
@@ -1961,8 +1959,17 @@
         <f>B4/C4</f>
         <v>2.7978142076502732</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="34">
+        <v>49</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43466</v>
       </c>
@@ -1976,8 +1983,17 @@
         <f>B5/C5</f>
         <v>2.892156862745098</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="34">
+        <v>52</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43497</v>
       </c>
@@ -1991,76 +2007,20 @@
         <f>B6/C6</f>
         <v>3.36</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>128</v>
-      </c>
-      <c r="C11" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="F6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
+      <c r="G6" s="34">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="H6" s="34" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2069,22 +2029,22 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
@@ -2098,7 +2058,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2110,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2176,7 +2136,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2200,7 +2160,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2222,7 +2182,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -2242,7 +2202,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
@@ -2274,14 +2234,14 @@
       <selection sqref="A1:A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
@@ -2295,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
@@ -2309,7 +2269,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -2323,7 +2283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
@@ -2337,7 +2297,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
@@ -2351,7 +2311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -2365,7 +2325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
@@ -2379,7 +2339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>37</v>
       </c>
@@ -2393,7 +2353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>39</v>
       </c>
@@ -2407,7 +2367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>41</v>
       </c>
@@ -2421,7 +2381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -2435,7 +2395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>45</v>
       </c>
@@ -2449,7 +2409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
@@ -2463,7 +2423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>49</v>
       </c>
@@ -2477,7 +2437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>51</v>
       </c>
@@ -2491,7 +2451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>53</v>
       </c>
@@ -2505,7 +2465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>54</v>
       </c>
@@ -2519,7 +2479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>55</v>
       </c>
@@ -2533,7 +2493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>57</v>
       </c>
@@ -2547,7 +2507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>59</v>
       </c>
@@ -2561,7 +2521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>61</v>
       </c>
@@ -2575,7 +2535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>63</v>
       </c>
@@ -2589,7 +2549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>64</v>
       </c>
@@ -2603,7 +2563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>66</v>
       </c>
@@ -2617,7 +2577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>68</v>
       </c>
@@ -2631,7 +2591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>70</v>
       </c>
@@ -2645,7 +2605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>71</v>
       </c>
@@ -2659,7 +2619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>73</v>
       </c>
@@ -2673,7 +2633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>74</v>
       </c>
@@ -2687,7 +2647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>76</v>
       </c>
@@ -2701,7 +2661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>77</v>
       </c>
@@ -2715,7 +2675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>78</v>
       </c>
@@ -2729,7 +2689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
@@ -2743,7 +2703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>81</v>
       </c>
@@ -2757,7 +2717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
@@ -2771,7 +2731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
@@ -2785,7 +2745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>84</v>
       </c>
@@ -2799,7 +2759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>85</v>
       </c>
@@ -2813,7 +2773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>86</v>
       </c>
@@ -2827,7 +2787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>87</v>
       </c>
@@ -2841,7 +2801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>89</v>
       </c>
@@ -2855,7 +2815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>90</v>
       </c>
@@ -2869,7 +2829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>91</v>
       </c>
@@ -2883,7 +2843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>92</v>
       </c>
@@ -2897,7 +2857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>93</v>
       </c>
@@ -2911,7 +2871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>94</v>
       </c>
@@ -2925,7 +2885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>95</v>
       </c>
@@ -2939,7 +2899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>97</v>
       </c>
@@ -2953,7 +2913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>99</v>
       </c>
@@ -2967,7 +2927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>100</v>
       </c>
@@ -2981,7 +2941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>101</v>
       </c>
@@ -2995,7 +2955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>102</v>
       </c>
@@ -3009,7 +2969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>103</v>
       </c>
@@ -3023,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>104</v>
       </c>
@@ -3037,7 +2997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>105</v>
       </c>
@@ -3051,7 +3011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>106</v>
       </c>
@@ -3065,7 +3025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>108</v>
       </c>
@@ -3079,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>109</v>
       </c>
@@ -3093,7 +3053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>110</v>
       </c>
@@ -3107,7 +3067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>111</v>
       </c>
@@ -3121,7 +3081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>112</v>
       </c>
@@ -3135,7 +3095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>113</v>
       </c>
@@ -3149,7 +3109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>115</v>
       </c>
@@ -3163,7 +3123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>116</v>
       </c>
@@ -3177,7 +3137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>117</v>
       </c>
@@ -3191,7 +3151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>118</v>
       </c>
@@ -3205,7 +3165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>120</v>
       </c>
@@ -3219,7 +3179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>121</v>
       </c>
@@ -3233,7 +3193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>122</v>
       </c>
@@ -3247,7 +3207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>123</v>
       </c>
@@ -3261,7 +3221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>124</v>
       </c>
@@ -3275,7 +3235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>126</v>
       </c>
@@ -3289,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>127</v>
       </c>
@@ -3303,7 +3263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>128</v>
       </c>
@@ -3317,7 +3277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>129</v>
       </c>
@@ -3331,7 +3291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>130</v>
       </c>
@@ -3345,7 +3305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>131</v>
       </c>
@@ -3359,7 +3319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>133</v>
       </c>
@@ -3373,7 +3333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>134</v>
       </c>
@@ -3387,7 +3347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>135</v>
       </c>
@@ -3401,7 +3361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>136</v>
       </c>
@@ -3425,17 +3385,17 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +3409,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>43374</v>
       </c>
@@ -3459,11 +3419,12 @@
       <c r="C2" s="15">
         <v>240</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="15">
+        <f>B2/C2</f>
+        <v>3.8166666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>43405</v>
       </c>
@@ -3473,11 +3434,12 @@
       <c r="C3" s="15">
         <v>161</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="15">
+        <f>B3/C3</f>
+        <v>2.6832298136645965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>43435</v>
       </c>
@@ -3487,11 +3449,12 @@
       <c r="C4" s="15">
         <v>180</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="15">
+        <f>B4/C4</f>
+        <v>2.4222222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>43466</v>
       </c>
@@ -3501,11 +3464,12 @@
       <c r="C5" s="15">
         <v>95</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="15">
+        <f>B5/C5</f>
+        <v>2.6526315789473682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>43497</v>
       </c>
@@ -3515,19 +3479,22 @@
       <c r="C6" s="15">
         <v>98</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="15">
+        <f>B6/C6</f>
+        <v>3.0612244897959182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <f>SUM(B2:B6)</f>
         <v>2336</v>
       </c>
+      <c r="D7" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3536,22 +3503,22 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
@@ -3560,7 +3527,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>43374</v>
       </c>
@@ -3570,11 +3537,12 @@
       <c r="C2" s="19">
         <v>31</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="19">
+        <f>B2/C2</f>
+        <v>3.129032258064516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>43405</v>
       </c>
@@ -3584,11 +3552,12 @@
       <c r="C3" s="19">
         <v>11</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="19">
+        <f>B3/C3</f>
+        <v>3.1818181818181817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>43435</v>
       </c>
@@ -3598,11 +3567,12 @@
       <c r="C4" s="19">
         <v>13</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="19">
+        <f>B4/C4</f>
+        <v>2.2307692307692308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>43466</v>
       </c>
@@ -3612,11 +3582,12 @@
       <c r="C5" s="19">
         <v>11</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="19">
+        <f>B5/C5</f>
+        <v>1.9090909090909092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>43497</v>
       </c>
@@ -3626,11 +3597,12 @@
       <c r="C6" s="19">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="19">
+        <f>B6/C6</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
         <f>SUM(B2:B6)</f>
         <v>196</v>
@@ -3644,25 +3616,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEAB745-0FF6-422E-B162-DB253D1865EC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
@@ -3671,7 +3643,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>43374</v>
       </c>
@@ -3681,11 +3653,12 @@
       <c r="C2" s="23">
         <v>21</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="23">
+        <f>B2/C2</f>
+        <v>2.0476190476190474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>43405</v>
       </c>
@@ -3695,11 +3668,12 @@
       <c r="C3" s="23">
         <v>9</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="23">
+        <f t="shared" ref="D3:D6" si="0">B3/C3</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>43435</v>
       </c>
@@ -3709,11 +3683,12 @@
       <c r="C4" s="23">
         <v>25</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="23">
+        <f t="shared" si="0"/>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>43466</v>
       </c>
@@ -3723,11 +3698,12 @@
       <c r="C5" s="23">
         <v>15</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="23">
+        <f t="shared" si="0"/>
+        <v>1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>43497</v>
       </c>
@@ -3737,15 +3713,19 @@
       <c r="C6" s="23">
         <v>8</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="35">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="23">
         <f>SUM(B2:B6)</f>
         <v>136</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3755,24 +3735,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776FB9F0-E049-4E15-9141-C60C4468586F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
@@ -3781,7 +3761,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>43374</v>
       </c>
@@ -3791,11 +3771,12 @@
       <c r="C2" s="27">
         <v>0</v>
       </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="27" t="e">
+        <f>B2/C2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>43405</v>
       </c>
@@ -3806,10 +3787,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="27">
+        <f t="shared" ref="D3:D6" si="0">B3/C3</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>43435</v>
       </c>
@@ -3819,11 +3801,12 @@
       <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>43466</v>
       </c>
@@ -3833,11 +3816,12 @@
       <c r="C5" s="27">
         <v>0</v>
       </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>43497</v>
       </c>
@@ -3848,14 +3832,18 @@
         <v>1</v>
       </c>
       <c r="D6" s="27">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <f>SUM(B2:B6)</f>
         <v>8</v>
       </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos/Facebook_Analytics.xlsx
+++ b/Datos/Facebook_Analytics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\Dropbox\Estadísticas EBA Nuria\Mi trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\OneDrive\Universidad\Prácticas EBA\Mi trabajo con Python\statisticsReader\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26BC2B9-5E7E-4548-B460-A446BD95B0CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F26BC2B9-5E7E-4548-B460-A446BD95B0CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2DD9A543-1384-4C53-A614-9C549D62166C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitas a la página" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -1455,7 +1455,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1492,6 +1492,7 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1863,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:H6"/>
     </sheetView>
   </sheetViews>
@@ -3485,10 +3486,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
-        <f>SUM(B2:B6)</f>
-        <v>2336</v>
-      </c>
+      <c r="B7" s="36"/>
       <c r="D7" s="31"/>
     </row>
   </sheetData>
@@ -3503,7 +3501,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3603,10 +3601,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
-        <f>SUM(B2:B6)</f>
-        <v>196</v>
-      </c>
+      <c r="B7" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3618,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEAB745-0FF6-422E-B162-DB253D1865EC}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,10 +3714,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
-        <f>SUM(B2:B6)</f>
-        <v>136</v>
-      </c>
+      <c r="B7" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="31"/>

--- a/Datos/Facebook_Analytics.xlsx
+++ b/Datos/Facebook_Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\OneDrive\Universidad\Prácticas EBA\Mi trabajo con Python\statisticsReader\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F26BC2B9-5E7E-4548-B460-A446BD95B0CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2DD9A543-1384-4C53-A614-9C549D62166C}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F26BC2B9-5E7E-4548-B460-A446BD95B0CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{164C512C-D72E-424B-9C4B-E3765737F70C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitas a la página" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -982,7 +982,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,6 +1291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,7 +1461,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1493,6 +1499,8 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1862,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,7 +1941,7 @@
         <v>165</v>
       </c>
       <c r="D3" s="1">
-        <f>B3/C3</f>
+        <f t="shared" ref="D3:D9" si="0">B3/C3</f>
         <v>2.9939393939393941</v>
       </c>
       <c r="F3" s="32" t="s">
@@ -1957,7 +1965,7 @@
         <v>183</v>
       </c>
       <c r="D4" s="1">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>2.7978142076502732</v>
       </c>
       <c r="F4" s="32" t="s">
@@ -1981,7 +1989,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="1">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>2.892156862745098</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -2005,7 +2013,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="1">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>3.36</v>
       </c>
       <c r="F6" s="32" t="s">
@@ -2016,6 +2024,51 @@
       </c>
       <c r="H6" s="34" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>43525</v>
+      </c>
+      <c r="B7" s="38">
+        <v>308</v>
+      </c>
+      <c r="C7" s="38">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9056603773584904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>43556</v>
+      </c>
+      <c r="B8" s="38">
+        <v>397</v>
+      </c>
+      <c r="C8" s="38">
+        <v>145</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7379310344827585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>43586</v>
+      </c>
+      <c r="B9" s="38">
+        <v>871</v>
+      </c>
+      <c r="C9" s="38">
+        <v>295</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9525423728813558</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C98C5E-FA10-45D9-ACDB-A17ECFC29F83}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Datos/Facebook_Analytics.xlsx
+++ b/Datos/Facebook_Analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nurit\OneDrive\Universidad\Prácticas EBA\Mi trabajo con Python\statisticsReader\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F26BC2B9-5E7E-4548-B460-A446BD95B0CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{164C512C-D72E-424B-9C4B-E3765737F70C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C422F6-3257-46A8-B2D1-6326997E6E02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1461,7 +1461,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1501,6 +1501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3436,10 +3437,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C98C5E-FA10-45D9-ACDB-A17ECFC29F83}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3539,8 +3540,38 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
+      <c r="A7" s="39">
+        <v>43525</v>
+      </c>
+      <c r="B7" s="36">
+        <v>266</v>
+      </c>
+      <c r="C7">
+        <v>102</v>
+      </c>
       <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>43556</v>
+      </c>
+      <c r="B8">
+        <v>356</v>
+      </c>
+      <c r="C8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>43586</v>
+      </c>
+      <c r="B9">
+        <v>743</v>
+      </c>
+      <c r="C9">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
